--- a/data/trans_orig/P1425-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1425-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>11384</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5822</v>
+        <v>6621</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19374</v>
+        <v>21404</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01640320597164825</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008389467215513766</v>
+        <v>0.009540624550879718</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02791577647621893</v>
+        <v>0.03084030441938864</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -764,19 +764,19 @@
         <v>9258</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4602</v>
+        <v>4282</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17603</v>
+        <v>16499</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01344944141582624</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006684939702653784</v>
+        <v>0.006221049555022582</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02557229726820118</v>
+        <v>0.02396896950879572</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -785,19 +785,19 @@
         <v>20642</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12953</v>
+        <v>12899</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>30290</v>
+        <v>30085</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0149323718683349</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009370441556541317</v>
+        <v>0.00933146604505747</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02191177498485531</v>
+        <v>0.02176330852674742</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>682628</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>674638</v>
+        <v>672608</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>688190</v>
+        <v>687391</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9835967940283518</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9720842235237811</v>
+        <v>0.9691596955806115</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9916105327844862</v>
+        <v>0.9904593754491203</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>687</v>
@@ -835,19 +835,19 @@
         <v>679093</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>670748</v>
+        <v>671852</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>683749</v>
+        <v>684069</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9865505585841737</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9744277027317989</v>
+        <v>0.9760310304912043</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9933150602973462</v>
+        <v>0.9937789504449774</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1358</v>
@@ -856,19 +856,19 @@
         <v>1361721</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1352073</v>
+        <v>1352278</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1369410</v>
+        <v>1369464</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9850676281316652</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9780882250151448</v>
+        <v>0.9782366914732531</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9906295584434588</v>
+        <v>0.9906685339549426</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>13411</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8185</v>
+        <v>7236</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22104</v>
+        <v>23095</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01394406794610631</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.008509733996858677</v>
+        <v>0.007523881307305307</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02298172643454078</v>
+        <v>0.02401236964926789</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -981,19 +981,19 @@
         <v>13404</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6824</v>
+        <v>7519</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23620</v>
+        <v>24408</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01384181808117853</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007046745420529333</v>
+        <v>0.007764704435324897</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02439135234797562</v>
+        <v>0.0252047611466322</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -1002,19 +1002,19 @@
         <v>26816</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17884</v>
+        <v>17491</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>39720</v>
+        <v>39533</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01389276838376246</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009265541134644933</v>
+        <v>0.00906176624684395</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02057816392747478</v>
+        <v>0.02048154239072655</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>948389</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>939696</v>
+        <v>938705</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>953615</v>
+        <v>954564</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9860559320538936</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9770182735654592</v>
+        <v>0.9759876303507318</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9914902660031414</v>
+        <v>0.9924761186926946</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>895</v>
@@ -1052,19 +1052,19 @@
         <v>954989</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>944773</v>
+        <v>943985</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>961569</v>
+        <v>960874</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9861581819188214</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9756086476520245</v>
+        <v>0.9747952388533677</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9929532545794708</v>
+        <v>0.992235295564675</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1778</v>
@@ -1073,19 +1073,19 @@
         <v>1903377</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1890473</v>
+        <v>1890660</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1912309</v>
+        <v>1912702</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9861072316162376</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9794218360725252</v>
+        <v>0.9795184576092735</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9907344588653552</v>
+        <v>0.990938233753156</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>6773</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2923</v>
+        <v>2849</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13881</v>
+        <v>12948</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009981727809818321</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004307354242979446</v>
+        <v>0.004198348189412698</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02045789452349096</v>
+        <v>0.01908236199841328</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1198,19 +1198,19 @@
         <v>6529</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2882</v>
+        <v>2709</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>13178</v>
+        <v>12974</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009547989447954385</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004214235737998162</v>
+        <v>0.003960920817407024</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01927050541206917</v>
+        <v>0.01897209840183583</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -1219,19 +1219,19 @@
         <v>13302</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7342</v>
+        <v>7370</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21419</v>
+        <v>21215</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009764009821460778</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005389157022113867</v>
+        <v>0.005409864808071151</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01572224995230923</v>
+        <v>0.015572681733788</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>671736</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>664628</v>
+        <v>665561</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>675586</v>
+        <v>675660</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9900182721901817</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9795421054765091</v>
+        <v>0.9809176380015867</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9956926457570205</v>
+        <v>0.9958016518105872</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>689</v>
@@ -1269,19 +1269,19 @@
         <v>677312</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>670663</v>
+        <v>670867</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>680959</v>
+        <v>681132</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9904520105520456</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9807294945879309</v>
+        <v>0.9810279015981642</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9957857642620019</v>
+        <v>0.9960390791825929</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1323</v>
@@ -1290,19 +1290,19 @@
         <v>1349048</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1340931</v>
+        <v>1341135</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1355008</v>
+        <v>1354980</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9902359901785392</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9842777500476908</v>
+        <v>0.9844273182662121</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9946108429778863</v>
+        <v>0.994590135191929</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>9164</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4954</v>
+        <v>4291</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18488</v>
+        <v>19334</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009726072145201761</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005257769369981511</v>
+        <v>0.004554357334339376</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01962137210129517</v>
+        <v>0.02051917477843542</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -1415,19 +1415,19 @@
         <v>7656</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3066</v>
+        <v>3216</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15458</v>
+        <v>14894</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.007371657132566475</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002951797330800627</v>
+        <v>0.003096005932822846</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0148837466986565</v>
+        <v>0.01434003482070603</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>16</v>
@@ -1436,19 +1436,19 @@
         <v>16820</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10273</v>
+        <v>9987</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>27558</v>
+        <v>27304</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.00849158022443432</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005185985131876351</v>
+        <v>0.0050417594083924</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01391228220478653</v>
+        <v>0.01378406593918222</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>933058</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>923734</v>
+        <v>922888</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>937268</v>
+        <v>937931</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9902739278547983</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.980378627898705</v>
+        <v>0.9794808252215659</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9947422306300185</v>
+        <v>0.9954456426656606</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>990</v>
@@ -1486,19 +1486,19 @@
         <v>1030956</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1023154</v>
+        <v>1023718</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1035546</v>
+        <v>1035396</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9926283428674335</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9851162533013432</v>
+        <v>0.9856599651792939</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9970482026691994</v>
+        <v>0.9969039940671771</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1975</v>
@@ -1507,19 +1507,19 @@
         <v>1964014</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1953276</v>
+        <v>1953530</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1970561</v>
+        <v>1970847</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9915084197755657</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9860877177952134</v>
+        <v>0.9862159340608179</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9948140148681237</v>
+        <v>0.9949582405916076</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>40732</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>29233</v>
+        <v>28670</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>53886</v>
+        <v>55242</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01243146754218791</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008921989561051922</v>
+        <v>0.008750156587797455</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01644592479024987</v>
+        <v>0.01685990507417724</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>36</v>
@@ -1632,19 +1632,19 @@
         <v>36848</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>26212</v>
+        <v>26306</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>50600</v>
+        <v>51159</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01090432271120994</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007756772408797242</v>
+        <v>0.007784604966452562</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01497404823056385</v>
+        <v>0.01513946832489492</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>77</v>
@@ -1653,19 +1653,19 @@
         <v>77580</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>61686</v>
+        <v>59672</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>96461</v>
+        <v>96121</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01165611826258588</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009268145434076116</v>
+        <v>0.008965457726594442</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01449284327209341</v>
+        <v>0.01444181458804981</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>3235811</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3222657</v>
+        <v>3221301</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3247310</v>
+        <v>3247873</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9875685324578121</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9835540752097501</v>
+        <v>0.9831400949258225</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9910780104389482</v>
+        <v>0.9912498434122026</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3261</v>
@@ -1703,19 +1703,19 @@
         <v>3342349</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3328597</v>
+        <v>3328038</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3352985</v>
+        <v>3352891</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9890956772887901</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9850259517694362</v>
+        <v>0.9848605316751051</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9922432275912029</v>
+        <v>0.9922153950335474</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6434</v>
@@ -1724,19 +1724,19 @@
         <v>6578161</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6559280</v>
+        <v>6559620</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6594055</v>
+        <v>6596069</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9883438817374142</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9855071567279063</v>
+        <v>0.9855581854119497</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9907318545659238</v>
+        <v>0.9910345422734055</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>5951</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2092</v>
+        <v>1988</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12823</v>
+        <v>11986</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008459473158695462</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002974360633340261</v>
+        <v>0.002826544660130964</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01822776239019585</v>
+        <v>0.0170380707161814</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -2089,19 +2089,19 @@
         <v>3055</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>957</v>
+        <v>947</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9139</v>
+        <v>8229</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004383269422364045</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001373353094089929</v>
+        <v>0.001358698531729915</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01311093743155133</v>
+        <v>0.01180476881014563</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -2110,19 +2110,19 @@
         <v>9006</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4070</v>
+        <v>4191</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16500</v>
+        <v>16214</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006430712494985728</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002905792669813139</v>
+        <v>0.002992120206187971</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01178123002904682</v>
+        <v>0.01157698509716492</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>697518</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>690646</v>
+        <v>691483</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>701377</v>
+        <v>701481</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9915405268413046</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9817722376098043</v>
+        <v>0.9829619292838186</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9970256393666598</v>
+        <v>0.997173455339869</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>647</v>
@@ -2160,19 +2160,19 @@
         <v>693995</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>687911</v>
+        <v>688821</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>696093</v>
+        <v>696103</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.995616730577636</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9868890625684487</v>
+        <v>0.9881952311898543</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9986266469059101</v>
+        <v>0.9986413014682701</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1315</v>
@@ -2181,19 +2181,19 @@
         <v>1391513</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1384019</v>
+        <v>1384305</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1396449</v>
+        <v>1396328</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9935692875050143</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9882187699709534</v>
+        <v>0.9884230149028351</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9970942073301868</v>
+        <v>0.997007879793812</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>11311</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6043</v>
+        <v>5262</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19470</v>
+        <v>19451</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01111193776336896</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005936578113333389</v>
+        <v>0.005169346982674431</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0191267382696857</v>
+        <v>0.01910826283414482</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -2306,19 +2306,19 @@
         <v>8372</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3347</v>
+        <v>3335</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16936</v>
+        <v>17024</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.008136728900415309</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003252750942435177</v>
+        <v>0.003241000020588576</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01645905287890617</v>
+        <v>0.01654465043158907</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -2327,19 +2327,19 @@
         <v>19684</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11291</v>
+        <v>11583</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>30175</v>
+        <v>31049</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.009616319993222107</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.005516021307937271</v>
+        <v>0.005658679859985779</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01474186537564011</v>
+        <v>0.01516863702973982</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>1006636</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>998477</v>
+        <v>998496</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1011904</v>
+        <v>1012685</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9888880622366311</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9808732617303143</v>
+        <v>0.9808917371658551</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9940634218866666</v>
+        <v>0.9948306530173255</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>931</v>
@@ -2377,19 +2377,19 @@
         <v>1020601</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1012037</v>
+        <v>1011949</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1025626</v>
+        <v>1025638</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9918632710995847</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.983540947121094</v>
+        <v>0.9834553495684126</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9967472490575648</v>
+        <v>0.9967589999794115</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1856</v>
@@ -2398,19 +2398,19 @@
         <v>2027237</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2016746</v>
+        <v>2015872</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2035630</v>
+        <v>2035338</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9903836800067779</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9852581346243602</v>
+        <v>0.9848313629702611</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9944839786920627</v>
+        <v>0.9943413201400143</v>
       </c>
     </row>
     <row r="9">
@@ -2505,16 +2505,16 @@
         <v>3022</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18130</v>
+        <v>19016</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01101322157445047</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003988714256480104</v>
+        <v>0.003989162823805835</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02393061848377214</v>
+        <v>0.02509929655298736</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -2523,19 +2523,19 @@
         <v>3187</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8665</v>
+        <v>8773</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.004101375608506891</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001271104684064355</v>
+        <v>0.001272307590506046</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01114901900809479</v>
+        <v>0.01128878524701175</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -2544,19 +2544,19 @@
         <v>11531</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5224</v>
+        <v>5271</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21252</v>
+        <v>22223</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007513276045466513</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003403862703132141</v>
+        <v>0.003434198711097354</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01384646568595222</v>
+        <v>0.01447941559616778</v>
       </c>
     </row>
     <row r="11">
@@ -2573,7 +2573,7 @@
         <v>749279</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>739493</v>
+        <v>738607</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>754601</v>
@@ -2582,10 +2582,10 @@
         <v>0.9889867784255495</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9760693815162279</v>
+        <v>0.9749007034470129</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9960112857435199</v>
+        <v>0.9960108371761942</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>702</v>
@@ -2594,19 +2594,19 @@
         <v>773987</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>768509</v>
+        <v>768401</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>776186</v>
+        <v>776185</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9958986243914931</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9888509809919053</v>
+        <v>0.9887112147529883</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9987288953159357</v>
+        <v>0.9987276924094939</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1385</v>
@@ -2615,19 +2615,19 @@
         <v>1523266</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1513545</v>
+        <v>1512574</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1529573</v>
+        <v>1529526</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9924867239545335</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9861535343140473</v>
+        <v>0.9855205844038323</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9965961372968678</v>
+        <v>0.9965658012889026</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>7184</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1941</v>
+        <v>2265</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16949</v>
+        <v>18878</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00758023841471738</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002048445338333971</v>
+        <v>0.002389891559466744</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01788340665688973</v>
+        <v>0.01991848510264701</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -2740,7 +2740,7 @@
         <v>6839</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2737</v>
+        <v>2602</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>14619</v>
@@ -2749,10 +2749,10 @@
         <v>0.006501453512706866</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.002601727335925536</v>
+        <v>0.002473766573297827</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01389796005700044</v>
+        <v>0.0138981303056745</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -2761,19 +2761,19 @@
         <v>14023</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7425</v>
+        <v>7283</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>26788</v>
+        <v>25867</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.007012748911428886</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003713089675077175</v>
+        <v>0.003641989354515911</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01339655923413431</v>
+        <v>0.01293600917428476</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>940555</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>930790</v>
+        <v>928861</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>945798</v>
+        <v>945474</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9924197615852827</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9821165933431104</v>
+        <v>0.9800815148973534</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9979515546616661</v>
+        <v>0.9976101084405343</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>997</v>
@@ -2814,16 +2814,16 @@
         <v>1037282</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1049164</v>
+        <v>1049299</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9934985464872932</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9861020399429996</v>
+        <v>0.9861018696943257</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9973982726640744</v>
+        <v>0.9975262334267022</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1902</v>
@@ -2832,19 +2832,19 @@
         <v>1985617</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1972852</v>
+        <v>1973773</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1992215</v>
+        <v>1992357</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9929872510885711</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9866034407658658</v>
+        <v>0.9870639908257153</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9962869103249229</v>
+        <v>0.9963580106454841</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>32790</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22809</v>
+        <v>22181</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>50039</v>
+        <v>47878</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009568842304984391</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006655974714619301</v>
+        <v>0.006472943814290164</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01460223732426785</v>
+        <v>0.0139718218531556</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -2957,19 +2957,19 @@
         <v>21454</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12918</v>
+        <v>13202</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32540</v>
+        <v>32673</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.006034770640894297</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00363354787169255</v>
+        <v>0.003713512859181389</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.009152968988008613</v>
+        <v>0.009190440895766471</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>47</v>
@@ -2978,19 +2978,19 @@
         <v>54245</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>40211</v>
+        <v>40094</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>72237</v>
+        <v>72880</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007769330207994423</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005759405541967779</v>
+        <v>0.005742601492680995</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01034640415813845</v>
+        <v>0.010438410426137</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>3393989</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3376740</v>
+        <v>3378901</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3403970</v>
+        <v>3404598</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9904311576950157</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9853977626757321</v>
+        <v>0.9860281781468444</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9933440252853808</v>
+        <v>0.99352705618571</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3277</v>
@@ -3028,19 +3028,19 @@
         <v>3533644</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3522558</v>
+        <v>3522425</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3542180</v>
+        <v>3541896</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9939652293591057</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9908470310119911</v>
+        <v>0.9908095591042335</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9963664521283073</v>
+        <v>0.9962864871408186</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6458</v>
@@ -3049,19 +3049,19 @@
         <v>6927632</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6909640</v>
+        <v>6908997</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6941666</v>
+        <v>6941783</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9922306697920056</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9896535958418614</v>
+        <v>0.9895615895738629</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9942405944580323</v>
+        <v>0.994257398507319</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>7846</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3799</v>
+        <v>4002</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15987</v>
+        <v>15780</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01162722645233868</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005629651458085996</v>
+        <v>0.005931357464119705</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0236918981156102</v>
+        <v>0.02338451017614638</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -3414,19 +3414,19 @@
         <v>4761</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1198</v>
+        <v>1468</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11913</v>
+        <v>11118</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007075941621370463</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001780281017191601</v>
+        <v>0.00218248426521994</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01770570535117097</v>
+        <v>0.01652355922578107</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -3435,19 +3435,19 @@
         <v>12607</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7080</v>
+        <v>7280</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22032</v>
+        <v>21526</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.009354895412688108</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00525370909909954</v>
+        <v>0.005401832271928527</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01634872642659988</v>
+        <v>0.01597316487342926</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>666954</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>658813</v>
+        <v>659020</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>671001</v>
+        <v>670798</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9883727735476613</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9763081018843898</v>
+        <v>0.9766154898238536</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.994370348541914</v>
+        <v>0.9940686425358801</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>662</v>
@@ -3485,19 +3485,19 @@
         <v>668078</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>660926</v>
+        <v>661721</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>671641</v>
+        <v>671371</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9929240583786295</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9822942946488291</v>
+        <v>0.9834764407742191</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9982197189828085</v>
+        <v>0.9978175157347801</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1306</v>
@@ -3506,19 +3506,19 @@
         <v>1335032</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1325607</v>
+        <v>1326113</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1340559</v>
+        <v>1340359</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9906451045873119</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9836512735734004</v>
+        <v>0.9840268351265712</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9947462909009005</v>
+        <v>0.9945981677280715</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>8130</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3911</v>
+        <v>3868</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15439</v>
+        <v>15981</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007951813389755908</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003825406999581555</v>
+        <v>0.00378333686541541</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01510011587382814</v>
+        <v>0.01563059210366715</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -3631,19 +3631,19 @@
         <v>5148</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1968</v>
+        <v>2006</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11451</v>
+        <v>11877</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004935706392783065</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00188700274066088</v>
+        <v>0.001923560169789822</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0109795729302235</v>
+        <v>0.0113878285914913</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -3652,19 +3652,19 @@
         <v>13278</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7633</v>
+        <v>7386</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>21792</v>
+        <v>21369</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.006428804529258349</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003695774461500555</v>
+        <v>0.003576392143022574</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01055111729590433</v>
+        <v>0.01034626643698197</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>1014301</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1006992</v>
+        <v>1006450</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1018520</v>
+        <v>1018563</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9920481866102441</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9848998841261719</v>
+        <v>0.9843694078963329</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9961745930004184</v>
+        <v>0.9962166631345846</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>972</v>
@@ -3702,19 +3702,19 @@
         <v>1037765</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1031462</v>
+        <v>1031036</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1040945</v>
+        <v>1040907</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9950642936072169</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9890204270697766</v>
+        <v>0.9886121714085089</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9981129972593391</v>
+        <v>0.9980764398302102</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1915</v>
@@ -3723,19 +3723,19 @@
         <v>2052066</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2043552</v>
+        <v>2043975</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2057711</v>
+        <v>2057958</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9935711954707417</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9894488827040957</v>
+        <v>0.989653733563018</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9963042255384993</v>
+        <v>0.9964236078569779</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>5353</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1933</v>
+        <v>1999</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12505</v>
+        <v>11979</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007046995576109618</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002545111667247624</v>
+        <v>0.002631863851276454</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01646341090266532</v>
+        <v>0.01577086037042092</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -3848,19 +3848,19 @@
         <v>7441</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3362</v>
+        <v>2674</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15252</v>
+        <v>15311</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009478613263294258</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004283347806324242</v>
+        <v>0.003406363397552913</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01942916469613147</v>
+        <v>0.01950439879434923</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -3869,19 +3869,19 @@
         <v>12793</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6405</v>
+        <v>6816</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22219</v>
+        <v>22194</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008282844280052838</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004147125521834235</v>
+        <v>0.004413018753908734</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01438538699437385</v>
+        <v>0.01436895153282119</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>754199</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>747047</v>
+        <v>747573</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>757619</v>
+        <v>757553</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9929530044238903</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9835365890973351</v>
+        <v>0.9842291396295794</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9974548883327524</v>
+        <v>0.9973681361487235</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>730</v>
@@ -3919,19 +3919,19 @@
         <v>777570</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>769759</v>
+        <v>769700</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>781649</v>
+        <v>782337</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9905213867367058</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9805708353038686</v>
+        <v>0.9804956012056509</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9957166521936758</v>
+        <v>0.9965936366024472</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1421</v>
@@ -3940,19 +3940,19 @@
         <v>1531770</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1522344</v>
+        <v>1522369</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1538158</v>
+        <v>1537747</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9917171557199471</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9856146130056259</v>
+        <v>0.985631048467179</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9958528744781655</v>
+        <v>0.9955869812460914</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>10202</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4777</v>
+        <v>5345</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18623</v>
+        <v>18677</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01088186818719324</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005094807828287018</v>
+        <v>0.005700883106089521</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01986298562732887</v>
+        <v>0.01992039213325326</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -4065,19 +4065,19 @@
         <v>16406</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9073</v>
+        <v>9384</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26349</v>
+        <v>27655</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01571836269872662</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.008692245699814119</v>
+        <v>0.008990594284899357</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02524398129293165</v>
+        <v>0.02649509595959603</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>24</v>
@@ -4086,19 +4086,19 @@
         <v>26609</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>17272</v>
+        <v>16894</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>38351</v>
+        <v>38190</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0134297479800118</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00871728630569968</v>
+        <v>0.008526465686536805</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01935619921026319</v>
+        <v>0.01927486224598779</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>927365</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>918944</v>
+        <v>918890</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>932790</v>
+        <v>932222</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9891181318128067</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9801370143726712</v>
+        <v>0.980079607866747</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9949051921717131</v>
+        <v>0.9942991168939105</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>945</v>
@@ -4136,19 +4136,19 @@
         <v>1027373</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1017430</v>
+        <v>1016124</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1034706</v>
+        <v>1034395</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9842816373012734</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9747560187070682</v>
+        <v>0.9735049040404044</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9913077543001857</v>
+        <v>0.9910094057151007</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1867</v>
@@ -4157,19 +4157,19 @@
         <v>1954737</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1942995</v>
+        <v>1943156</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1964074</v>
+        <v>1964452</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9865702520199882</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9806438007897368</v>
+        <v>0.9807251377540122</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9912827136943003</v>
+        <v>0.9914735343134631</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>31531</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21555</v>
+        <v>21077</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>45006</v>
+        <v>44309</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009289340281430946</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006350137198595015</v>
+        <v>0.006209452053614274</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01325903198188836</v>
+        <v>0.01305362416626726</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>29</v>
@@ -4282,19 +4282,19 @@
         <v>33756</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>23434</v>
+        <v>22597</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>48821</v>
+        <v>49363</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009523316246335518</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006611426718393933</v>
+        <v>0.006375166033077717</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01377368521911206</v>
+        <v>0.0139265398664267</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>60</v>
@@ -4303,19 +4303,19 @@
         <v>65287</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>50089</v>
+        <v>50049</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>83521</v>
+        <v>84235</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009408860457486089</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007218547751944037</v>
+        <v>0.007212814790652658</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0120366327280391</v>
+        <v>0.01213958881893639</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>3362819</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3349344</v>
+        <v>3350041</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3372795</v>
+        <v>3373273</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9907106597185691</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9867409680181118</v>
+        <v>0.9869463758337327</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9936498628014051</v>
+        <v>0.9937905479463854</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3309</v>
@@ -4353,19 +4353,19 @@
         <v>3510786</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3495721</v>
+        <v>3495179</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3521108</v>
+        <v>3521945</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9904766837536645</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.986226314780888</v>
+        <v>0.9860734601335731</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.993388573281606</v>
+        <v>0.9936248339669222</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6509</v>
@@ -4374,19 +4374,19 @@
         <v>6873605</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6855371</v>
+        <v>6854657</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6888803</v>
+        <v>6888843</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9905911395425139</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9879633672719609</v>
+        <v>0.9878604111810637</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9927814522480556</v>
+        <v>0.9927871852093474</v>
       </c>
     </row>
     <row r="18">
